--- a/SetList/xlsx/ochanorma.xlsx
+++ b/SetList/xlsx/ochanorma.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7802E4BF-710D-F141-99C2-0C50B05973BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="38320" windowHeight="22180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sample" sheetId="1" r:id="rId4"/>
+    <sheet name="ファーストライブツアー2022～スタートダッシュ！～" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
   <si>
     <t>項番</t>
   </si>
@@ -26,25 +35,218 @@
   </si>
   <si>
     <t>準備中</t>
+  </si>
+  <si>
+    <t>恋のクラウチングスタート</t>
+    <rPh sb="0" eb="1">
+      <t>コイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミステイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="1">
+      <t>ゼンイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hello！生まれた意味がきっとある</t>
+    <rPh sb="6" eb="7">
+      <t>ウマレ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デート前夜狂想曲</t>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>クルウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オモウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よりどりみどり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go Your Way</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラーメン大好き小泉さんの唄</t>
+    <rPh sb="4" eb="6">
+      <t>ダイスキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コイズミ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ウタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぴったりしたいX'mas！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広本瑠璃　窪田七海　田代すみれ</t>
+    <rPh sb="0" eb="4">
+      <t>ヒロモト</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>クボ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初恋サイダー</t>
+    <rPh sb="0" eb="2">
+      <t>ハツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斉藤円香　中山夏月姫　西﨑美空</t>
+    <rPh sb="0" eb="4">
+      <t>サイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ニシザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガタメキラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石栗奏美　米村姫良々　北原もも　筒井澪心</t>
+    <rPh sb="0" eb="4">
+      <t>イシグリ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヨネムラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キタハラム</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ツツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇宙規模で大好き宣言</t>
+    <rPh sb="0" eb="4">
+      <t>ウチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダイスキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素肌は熱帯夜</t>
+    <rPh sb="0" eb="2">
+      <t>スハダ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ネッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウチらの地元は地球じゃん！</t>
+    <rPh sb="4" eb="6">
+      <t>ジモト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お祭りデビューだぜ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運命　CHACHACHACHA〜N</t>
+    <rPh sb="0" eb="2">
+      <t>ウンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="6"/>
+      <name val="Noto Sans JP Black"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -86,49 +288,113 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -330,7 +596,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -349,7 +615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -379,7 +645,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -405,7 +671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -431,7 +697,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -457,7 +723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -483,7 +749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -509,7 +775,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -535,7 +801,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -561,7 +827,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -587,7 +853,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -600,9 +866,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -619,7 +891,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -638,7 +910,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -664,7 +936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +1014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +1066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +1092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +1118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +1144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,9 +1157,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -901,7 +1179,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -920,7 +1198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,7 +1228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +1254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,7 +1280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,7 +1358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1106,7 +1384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1132,7 +1410,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,62 +1449,353 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
   </headerFooter>
